--- a/PPS19 - Comanda.xlsx
+++ b/PPS19 - Comanda.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Desktop\GIT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas" sheetId="1" r:id="rId1"/>
@@ -22,12 +17,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Correcciones!$A$2:$B$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tareas!$A$1:$G$53</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="324">
   <si>
     <t>CORRECCIONES PARA SPRINT FINAL</t>
   </si>
@@ -1046,13 +1041,22 @@
   </si>
   <si>
     <t>Juego 1, 2 y 3</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Trevor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1115,6 +1119,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1541,7 +1551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1721,39 +1731,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1807,6 +1784,45 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1868,7 +1884,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1903,7 +1919,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2080,7 +2096,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2093,806 +2109,824 @@
   </sheetPr>
   <dimension ref="A1:K1026"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G37" sqref="G37"/>
+      <selection pane="topRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="48.140625" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="77" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="98">
+      <c r="B2" s="79">
         <v>1</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="91"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="110" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="72"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="98">
+      <c r="B3" s="79">
         <v>2</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="91"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="110" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="72"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="98">
+      <c r="B4" s="79">
         <v>3</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="91"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="110" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="84"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="72"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="98">
+      <c r="B5" s="79">
         <v>4</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="91"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="111" t="s">
+        <v>322</v>
+      </c>
+      <c r="F5" s="84"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="98">
+      <c r="B6" s="79">
         <v>5</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="91"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="111" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" s="82"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="98">
+      <c r="B7" s="79">
         <v>6</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="104"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="111" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="85"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="79">
         <v>7</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="91"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="111" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="72"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="79">
         <v>8</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="91"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="111" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" s="86"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="98">
+      <c r="B10" s="79">
         <v>9</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="91"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="72"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="98">
+      <c r="B11" s="79">
         <v>10</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="91"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="98">
+      <c r="B12" s="79">
         <v>11</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="79">
         <v>13</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="91"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="98">
+      <c r="B14" s="79">
         <v>14</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="91"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="72"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="79">
         <v>15</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="91"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="72"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B16" s="79">
         <v>16</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="91"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="72"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="98">
+      <c r="B17" s="79">
         <v>17</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="91"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="72"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="98">
+      <c r="B18" s="79">
         <v>18</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="91"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="72"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="98">
+      <c r="B19" s="79">
         <v>19</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="91"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="72"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="106" t="s">
+      <c r="A20" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="98">
+      <c r="B20" s="79">
         <v>20</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="91"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="72"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="98">
+      <c r="B21" s="79">
         <v>21</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="91"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="72"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="98">
+      <c r="B22" s="79">
         <v>22</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="91"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="72"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="98">
+      <c r="B23" s="79">
         <v>23</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="104"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="85"/>
       <c r="J23" s="36"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="98">
+      <c r="B24" s="79">
         <v>24</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="104"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="85"/>
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="98">
+      <c r="B25" s="79">
         <v>25</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="91"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="72"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="98">
+      <c r="B26" s="79">
         <v>26</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="91"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="72"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="98">
+      <c r="B27" s="79">
         <v>27</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="91"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="72"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="98">
+      <c r="B28" s="79">
         <v>28</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="91"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="72"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="98">
+      <c r="B29" s="79">
         <v>29</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="91"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="72"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="98">
+      <c r="B30" s="79">
         <v>30</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="91"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="72"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="98">
+      <c r="B31" s="79">
         <v>31</v>
       </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="91"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="91"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="97" t="s">
+      <c r="A33" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="91"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="72"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="97" t="s">
+      <c r="A34" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="91"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="72"/>
       <c r="K34" s="36"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="91"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="72"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="91"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="104"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="111" t="s">
+        <v>323</v>
+      </c>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="85"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="104"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="85"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="99"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="91"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="72"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="97" t="s">
+      <c r="A40" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="98" t="s">
+      <c r="B40" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="91"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="72"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="C41" s="99"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="91"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="72"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="91"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="99"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="104"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="85"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="98" t="s">
+      <c r="B44" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="91"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="72"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="99"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="104"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="85"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="97" t="s">
+      <c r="A46" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="B46" s="98" t="s">
+      <c r="B46" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="91"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="91"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="72"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="91"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="97" t="s">
+      <c r="A49" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="104"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="85"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="97" t="s">
+      <c r="A50" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="98" t="s">
+      <c r="B50" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="99"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="91"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="72"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B51" s="98" t="s">
+      <c r="B51" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="91"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="72"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="98" t="s">
+      <c r="B52" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="99"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="91"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="72"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="97" t="s">
+      <c r="A53" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="91"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="72"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="51"/>
@@ -10681,6 +10715,7 @@
   </sheetData>
   <autoFilter ref="A1:G53"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10691,7 +10726,7 @@
   </sheetPr>
   <dimension ref="A1:AI1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10700,8 +10735,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
@@ -10714,34 +10750,35 @@
     <col min="13" max="13" width="11.5703125" customWidth="1"/>
     <col min="14" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="16.5">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="78" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="71"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="99"/>
     </row>
     <row r="2" spans="1:35" ht="26.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -10819,7 +10856,7 @@
       <c r="AI2" s="11"/>
     </row>
     <row r="3" spans="1:35" ht="12.75">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="107" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -10853,7 +10890,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="12.75">
-      <c r="A4" s="73"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="16" t="s">
         <v>104</v>
       </c>
@@ -10888,7 +10925,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="25.5">
-      <c r="A5" s="73"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="16" t="s">
         <v>113</v>
       </c>
@@ -10923,7 +10960,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="25.5">
-      <c r="A6" s="73"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="16" t="s">
         <v>121</v>
       </c>
@@ -10958,7 +10995,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" ht="12.75">
-      <c r="A7" s="86"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="38" t="s">
         <v>131</v>
       </c>
@@ -10990,7 +11027,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" ht="12.75">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="91" t="s">
         <v>145</v>
       </c>
       <c r="B8" s="44" t="s">
@@ -11024,7 +11061,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="12.75">
-      <c r="A9" s="73"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="16" t="s">
         <v>98</v>
       </c>
@@ -11056,7 +11093,7 @@
       </c>
     </row>
     <row r="10" spans="1:35" ht="12.75">
-      <c r="A10" s="86"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="38" t="s">
         <v>148</v>
       </c>
@@ -11088,7 +11125,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="12.75">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="91" t="s">
         <v>176</v>
       </c>
       <c r="B11" s="44" t="s">
@@ -11120,7 +11157,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="12.75">
-      <c r="A12" s="73"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="16" t="s">
         <v>179</v>
       </c>
@@ -11150,7 +11187,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="12.75">
-      <c r="A13" s="86"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="38" t="s">
         <v>181</v>
       </c>
@@ -11180,7 +11217,7 @@
       </c>
     </row>
     <row r="14" spans="1:35" ht="12.75">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="91" t="s">
         <v>182</v>
       </c>
       <c r="B14" s="44" t="s">
@@ -11214,7 +11251,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="12.75">
-      <c r="A15" s="73"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="16" t="s">
         <v>112</v>
       </c>
@@ -11246,7 +11283,7 @@
       </c>
     </row>
     <row r="16" spans="1:35" ht="12.75">
-      <c r="A16" s="86"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="38" t="s">
         <v>187</v>
       </c>
@@ -11278,7 +11315,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="12.75">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="91" t="s">
         <v>190</v>
       </c>
       <c r="B17" s="44" t="s">
@@ -11312,7 +11349,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="12.75">
-      <c r="A18" s="73"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="16" t="s">
         <v>194</v>
       </c>
@@ -11344,7 +11381,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="12.75">
-      <c r="A19" s="86"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="38" t="s">
         <v>197</v>
       </c>
@@ -11376,7 +11413,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="12.75">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="107" t="s">
         <v>200</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -11410,7 +11447,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="12.75">
-      <c r="A21" s="73"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="16" t="s">
         <v>204</v>
       </c>
@@ -11442,7 +11479,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="12.75">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="91" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="44" t="s">
@@ -11476,7 +11513,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="12.75">
-      <c r="A23" s="73"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="16" t="s">
         <v>216</v>
       </c>
@@ -11508,7 +11545,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12.75">
-      <c r="A24" s="74"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="44" t="s">
         <v>221</v>
       </c>
@@ -11540,7 +11577,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12.75">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="94" t="s">
         <v>222</v>
       </c>
       <c r="B25" s="57" t="s">
@@ -11559,23 +11596,23 @@
       <c r="M25" s="59"/>
       <c r="N25" s="59"/>
       <c r="O25" s="59"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="85"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="105"/>
       <c r="R25" s="59"/>
       <c r="S25" s="61"/>
     </row>
     <row r="26" spans="1:19" ht="12.75">
-      <c r="A26" s="76"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="62" t="s">
         <v>239</v>
       </c>
       <c r="C26" s="63"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
       <c r="S26" s="64"/>
     </row>
     <row r="27" spans="1:19" ht="12.75">
-      <c r="A27" s="77"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="65" t="s">
         <v>248</v>
       </c>
@@ -16499,10 +16536,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="109"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -16816,7 +16853,9 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -17035,7 +17074,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="25.5">
       <c r="A14" s="31" t="s">
         <v>117</v>
       </c>
@@ -17051,7 +17090,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="31" t="s">
         <v>120</v>
       </c>
@@ -17383,8 +17422,8 @@
   </sheetPr>
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
